--- a/web_grep/product_total.xlsx
+++ b/web_grep/product_total.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="931" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="575" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,561 +15,960 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="318">
   <si>
     <t>KB522</t>
   </si>
   <si>
+    <t>LC572</t>
+  </si>
+  <si>
+    <t>LC575</t>
+  </si>
+  <si>
+    <t>MA102</t>
+  </si>
+  <si>
+    <t>MA108</t>
+  </si>
+  <si>
+    <t>MA317</t>
+  </si>
+  <si>
+    <t>MA321</t>
+  </si>
+  <si>
+    <t>MA498</t>
+  </si>
+  <si>
+    <t>MA499</t>
+  </si>
+  <si>
+    <t>MB724</t>
+  </si>
+  <si>
+    <t>MH165</t>
+  </si>
+  <si>
+    <t>MH657</t>
+  </si>
+  <si>
+    <t>MH663</t>
+  </si>
+  <si>
+    <t>MH666</t>
+  </si>
+  <si>
+    <t>PA838</t>
+  </si>
+  <si>
+    <t>PA924</t>
+  </si>
+  <si>
+    <t>PA927</t>
+  </si>
+  <si>
+    <t>PA935</t>
+  </si>
+  <si>
+    <t>PA937</t>
+  </si>
+  <si>
+    <t>PB101</t>
+  </si>
+  <si>
+    <t>PB159</t>
+  </si>
+  <si>
+    <t>PB641</t>
+  </si>
+  <si>
+    <t>PB646</t>
+  </si>
+  <si>
+    <t>PB750</t>
+  </si>
+  <si>
+    <t>PB761</t>
+  </si>
+  <si>
     <t>PB762</t>
   </si>
   <si>
+    <t>PB765</t>
+  </si>
+  <si>
     <t>PB784</t>
   </si>
   <si>
-    <t>PB761</t>
-  </si>
-  <si>
-    <t>PB646</t>
-  </si>
-  <si>
-    <t>PB765</t>
-  </si>
-  <si>
-    <t>PB998</t>
-  </si>
-  <si>
-    <t>PE846</t>
-  </si>
-  <si>
-    <t>PJ075</t>
-  </si>
-  <si>
-    <t>PH528</t>
+    <t>PB801</t>
+  </si>
+  <si>
+    <t>PB844</t>
+  </si>
+  <si>
+    <t>PB971</t>
+  </si>
+  <si>
+    <t>PB974</t>
+  </si>
+  <si>
+    <t>PC943</t>
+  </si>
+  <si>
+    <t>PC971</t>
+  </si>
+  <si>
+    <t>PD209</t>
+  </si>
+  <si>
+    <t>PD304</t>
+  </si>
+  <si>
+    <t>PD330</t>
+  </si>
+  <si>
+    <t>PD377</t>
+  </si>
+  <si>
+    <t>PD394</t>
+  </si>
+  <si>
+    <t>PD399</t>
+  </si>
+  <si>
+    <t>PD411</t>
+  </si>
+  <si>
+    <t>PD415</t>
+  </si>
+  <si>
+    <t>PD416</t>
+  </si>
+  <si>
+    <t>PD454</t>
+  </si>
+  <si>
+    <t>PD495</t>
   </si>
   <si>
     <t>PE063</t>
   </si>
   <si>
-    <t>PA987</t>
-  </si>
-  <si>
-    <t>PB663</t>
+    <t>PE087</t>
+  </si>
+  <si>
+    <t>PE129</t>
+  </si>
+  <si>
+    <t>PE268</t>
+  </si>
+  <si>
+    <t>PE796</t>
+  </si>
+  <si>
+    <t>PE940</t>
+  </si>
+  <si>
+    <t>PE943</t>
+  </si>
+  <si>
+    <t>PE945</t>
+  </si>
+  <si>
+    <t>PF006</t>
+  </si>
+  <si>
+    <t>PF036</t>
+  </si>
+  <si>
+    <t>PF067</t>
+  </si>
+  <si>
+    <t>PF083</t>
+  </si>
+  <si>
+    <t>PF108</t>
+  </si>
+  <si>
+    <t>PF143</t>
+  </si>
+  <si>
+    <t>PF146</t>
+  </si>
+  <si>
+    <t>PF161</t>
+  </si>
+  <si>
+    <t>PF899</t>
+  </si>
+  <si>
+    <t>PF902</t>
+  </si>
+  <si>
+    <t>PF910</t>
+  </si>
+  <si>
+    <t>PG182</t>
+  </si>
+  <si>
+    <t>PG230</t>
+  </si>
+  <si>
+    <t>PH020</t>
+  </si>
+  <si>
+    <t>PH125</t>
+  </si>
+  <si>
+    <t>PH424</t>
   </si>
   <si>
     <t>PH437</t>
   </si>
   <si>
-    <t>PE268</t>
-  </si>
-  <si>
-    <t>PF146</t>
-  </si>
-  <si>
-    <t>PF108</t>
-  </si>
-  <si>
-    <t>PE240</t>
+    <t>PH455</t>
+  </si>
+  <si>
+    <t>PH457</t>
+  </si>
+  <si>
+    <t>PH460</t>
+  </si>
+  <si>
+    <t>PH476</t>
   </si>
   <si>
     <t>PH494</t>
   </si>
   <si>
-    <t>PF143</t>
-  </si>
-  <si>
     <t>PH500</t>
   </si>
   <si>
-    <t>PE270</t>
-  </si>
-  <si>
-    <t>PB641</t>
-  </si>
-  <si>
-    <t>PE169</t>
-  </si>
-  <si>
-    <t>PB772</t>
-  </si>
-  <si>
-    <t>PB691</t>
-  </si>
-  <si>
-    <t>PB623</t>
-  </si>
-  <si>
-    <t>PD246</t>
-  </si>
-  <si>
-    <t>PD249</t>
-  </si>
-  <si>
-    <t>PB635</t>
-  </si>
-  <si>
-    <t>PB625</t>
-  </si>
-  <si>
-    <t>PB750</t>
-  </si>
-  <si>
-    <t>PB637</t>
-  </si>
-  <si>
-    <t>MA498</t>
-  </si>
-  <si>
-    <t>PB615</t>
-  </si>
-  <si>
-    <t>PE262</t>
-  </si>
-  <si>
-    <t>PB626</t>
-  </si>
-  <si>
-    <t>MA499</t>
-  </si>
-  <si>
-    <t>PB752</t>
-  </si>
-  <si>
-    <t>PB624</t>
-  </si>
-  <si>
-    <t>PH407</t>
-  </si>
-  <si>
-    <t>PH423</t>
-  </si>
-  <si>
-    <t>PD377</t>
-  </si>
-  <si>
-    <t>PH458</t>
-  </si>
-  <si>
-    <t>PD266</t>
-  </si>
-  <si>
-    <t>PH593</t>
-  </si>
-  <si>
-    <t>PD285</t>
-  </si>
-  <si>
-    <t>PE054</t>
-  </si>
-  <si>
-    <t>PH492</t>
-  </si>
-  <si>
-    <t>PE087</t>
-  </si>
-  <si>
-    <t>PH468</t>
-  </si>
-  <si>
-    <t>PH497</t>
-  </si>
-  <si>
-    <t>PH454</t>
-  </si>
-  <si>
-    <t>PH463</t>
-  </si>
-  <si>
-    <t>PE209</t>
-  </si>
-  <si>
-    <t>PD248</t>
-  </si>
-  <si>
-    <t>PH460</t>
-  </si>
-  <si>
-    <t>PD402</t>
-  </si>
-  <si>
-    <t>PD495</t>
-  </si>
-  <si>
-    <t>PD251</t>
-  </si>
-  <si>
-    <t>PD250</t>
-  </si>
-  <si>
-    <t>PE633</t>
-  </si>
-  <si>
-    <t>PH455</t>
-  </si>
-  <si>
-    <t>PH420</t>
-  </si>
-  <si>
-    <t>PH444</t>
-  </si>
-  <si>
-    <t>PH486</t>
-  </si>
-  <si>
-    <t>PH483</t>
-  </si>
-  <si>
-    <t>PH424</t>
-  </si>
-  <si>
-    <t>PH476</t>
-  </si>
-  <si>
-    <t>PE144</t>
-  </si>
-  <si>
-    <t>PD260</t>
-  </si>
-  <si>
-    <t>PH457</t>
-  </si>
-  <si>
-    <t>PH598</t>
-  </si>
-  <si>
-    <t>PH461</t>
-  </si>
-  <si>
-    <t>PH456</t>
-  </si>
-  <si>
     <t>PH503</t>
   </si>
   <si>
-    <t>PD253</t>
-  </si>
-  <si>
-    <t>PH464</t>
-  </si>
-  <si>
-    <t>PF267</t>
-  </si>
-  <si>
-    <t>PE727</t>
-  </si>
-  <si>
-    <t>PE729</t>
-  </si>
-  <si>
-    <t>MA102</t>
-  </si>
-  <si>
-    <t>MA108</t>
-  </si>
-  <si>
-    <t>PE796</t>
-  </si>
-  <si>
-    <t>PD399</t>
-  </si>
-  <si>
-    <t>PD450</t>
+    <t>PH566</t>
+  </si>
+  <si>
+    <t>PH570</t>
   </si>
   <si>
     <t>PH584</t>
   </si>
   <si>
-    <t>PD411</t>
-  </si>
-  <si>
-    <t>MA091</t>
-  </si>
-  <si>
-    <t>PD396</t>
-  </si>
-  <si>
-    <t>PD403</t>
-  </si>
-  <si>
     <t>PH623</t>
   </si>
   <si>
-    <t>PD454</t>
-  </si>
-  <si>
-    <t>LC575</t>
-  </si>
-  <si>
-    <t>PH582</t>
-  </si>
-  <si>
-    <t>LC572</t>
-  </si>
-  <si>
-    <t>PD209</t>
-  </si>
-  <si>
-    <t>PD416</t>
-  </si>
-  <si>
-    <t>MA266</t>
-  </si>
-  <si>
-    <t>PD394</t>
-  </si>
-  <si>
-    <t>MA317</t>
-  </si>
-  <si>
-    <t>LC567</t>
-  </si>
-  <si>
-    <t>MA321</t>
-  </si>
-  <si>
-    <t>PD415</t>
-  </si>
-  <si>
-    <t>PD391</t>
-  </si>
-  <si>
-    <t>MB093</t>
-  </si>
-  <si>
-    <t>MB167</t>
-  </si>
-  <si>
-    <t>MA250</t>
-  </si>
-  <si>
-    <t>PH063</t>
-  </si>
-  <si>
-    <t>PH840</t>
-  </si>
-  <si>
-    <t>PJ319</t>
-  </si>
-  <si>
-    <t>PH064</t>
-  </si>
-  <si>
-    <t>PH020</t>
-  </si>
-  <si>
-    <t>PG256</t>
-  </si>
-  <si>
-    <t>PH171</t>
-  </si>
-  <si>
-    <t>PC971</t>
-  </si>
-  <si>
-    <t>PJ160</t>
-  </si>
-  <si>
-    <t>PA935</t>
-  </si>
-  <si>
-    <t>PG097</t>
-  </si>
-  <si>
-    <t>PG082</t>
-  </si>
-  <si>
-    <t>PA927</t>
-  </si>
-  <si>
-    <t>PH107</t>
-  </si>
-  <si>
-    <t>PC963</t>
+    <t>PH836</t>
+  </si>
+  <si>
+    <t>PH845</t>
+  </si>
+  <si>
+    <t>PH847</t>
+  </si>
+  <si>
+    <t>PH848</t>
+  </si>
+  <si>
+    <t>PH851</t>
+  </si>
+  <si>
+    <t>PH856</t>
+  </si>
+  <si>
+    <t>PH858</t>
+  </si>
+  <si>
+    <t>PH894</t>
+  </si>
+  <si>
+    <t>PJ143</t>
+  </si>
+  <si>
+    <t>PJ325</t>
+  </si>
+  <si>
+    <t>PJ326</t>
+  </si>
+  <si>
+    <t>PJ327</t>
+  </si>
+  <si>
+    <t>PJ329</t>
+  </si>
+  <si>
+    <t>PJ332</t>
   </si>
   <si>
     <t>PJ333</t>
   </si>
   <si>
-    <t>PH135</t>
-  </si>
-  <si>
-    <t>PG188</t>
-  </si>
-  <si>
-    <t>PJ145</t>
-  </si>
-  <si>
-    <t>PB159</t>
-  </si>
-  <si>
-    <t>PJ173</t>
-  </si>
-  <si>
-    <t>PD655</t>
-  </si>
-  <si>
-    <t>PH086</t>
-  </si>
-  <si>
-    <t>PJ143</t>
-  </si>
-  <si>
-    <t>PA937</t>
-  </si>
-  <si>
-    <t>PD765</t>
-  </si>
-  <si>
-    <t>PG021</t>
-  </si>
-  <si>
-    <t>PC940</t>
-  </si>
-  <si>
-    <t>PG191</t>
-  </si>
-  <si>
-    <t>PG017</t>
-  </si>
-  <si>
-    <t>PG094</t>
-  </si>
-  <si>
-    <t>PJ181</t>
-  </si>
-  <si>
-    <t>PJ331</t>
-  </si>
-  <si>
-    <t>PJ325</t>
-  </si>
-  <si>
-    <t>PG020</t>
-  </si>
-  <si>
-    <t>PJ043</t>
-  </si>
-  <si>
-    <t>PJ161</t>
-  </si>
-  <si>
-    <t>PJ174</t>
-  </si>
-  <si>
-    <t>PH084</t>
-  </si>
-  <si>
-    <t>PJ329</t>
-  </si>
-  <si>
-    <t>PJ326</t>
-  </si>
-  <si>
-    <t>PA924</t>
-  </si>
-  <si>
-    <t>PD933</t>
-  </si>
-  <si>
-    <t>PJ076</t>
-  </si>
-  <si>
-    <t>PC943</t>
-  </si>
-  <si>
-    <t>PB158</t>
-  </si>
-  <si>
-    <t>PG257</t>
-  </si>
-  <si>
-    <t>PH014</t>
-  </si>
-  <si>
-    <t>PG096</t>
-  </si>
-  <si>
-    <t>MG733</t>
-  </si>
-  <si>
-    <t>PH109</t>
-  </si>
-  <si>
-    <t>PG060</t>
-  </si>
-  <si>
-    <t>PJ156</t>
-  </si>
-  <si>
-    <t>PH125</t>
-  </si>
-  <si>
-    <t>PJ157</t>
-  </si>
-  <si>
-    <t>PJ144</t>
-  </si>
-  <si>
-    <t>PH131</t>
-  </si>
-  <si>
-    <t>PH128</t>
-  </si>
-  <si>
-    <t>PH152</t>
-  </si>
-  <si>
-    <t>PH067</t>
-  </si>
-  <si>
-    <t>PC937</t>
-  </si>
-  <si>
-    <t>PJ322</t>
-  </si>
-  <si>
-    <t>PJ172</t>
-  </si>
-  <si>
-    <t>PJ327</t>
-  </si>
-  <si>
-    <t>PJ152</t>
-  </si>
-  <si>
-    <t>PB101</t>
-  </si>
-  <si>
-    <t>PJ150</t>
-  </si>
-  <si>
-    <t>PG184</t>
-  </si>
-  <si>
-    <t>PG230</t>
-  </si>
-  <si>
-    <t>PG083</t>
-  </si>
-  <si>
-    <t>PJ332</t>
-  </si>
-  <si>
-    <t>PH103</t>
-  </si>
-  <si>
-    <t>PH856</t>
-  </si>
-  <si>
-    <t>PJ328</t>
-  </si>
-  <si>
-    <t>PJ165</t>
-  </si>
-  <si>
-    <t>PG182</t>
-  </si>
-  <si>
-    <t>MC893</t>
+    <t>QA095</t>
+  </si>
+  <si>
+    <t>QA098</t>
+  </si>
+  <si>
+    <t>QA107</t>
+  </si>
+  <si>
+    <t>QA128</t>
+  </si>
+  <si>
+    <t>QA131</t>
+  </si>
+  <si>
+    <t>QA133</t>
+  </si>
+  <si>
+    <t>QA135</t>
+  </si>
+  <si>
+    <t>QA136</t>
+  </si>
+  <si>
+    <t>QA139</t>
+  </si>
+  <si>
+    <t>QA163</t>
+  </si>
+  <si>
+    <t>QA167</t>
+  </si>
+  <si>
+    <t>QA168</t>
+  </si>
+  <si>
+    <t>QA170</t>
+  </si>
+  <si>
+    <t>QA172</t>
+  </si>
+  <si>
+    <t>QA185</t>
+  </si>
+  <si>
+    <t>QA187</t>
+  </si>
+  <si>
+    <t>QA191</t>
+  </si>
+  <si>
+    <t>QA194</t>
+  </si>
+  <si>
+    <t>QA195</t>
+  </si>
+  <si>
+    <t>QA196</t>
+  </si>
+  <si>
+    <t>QA201</t>
+  </si>
+  <si>
+    <t>QA253</t>
+  </si>
+  <si>
+    <t>QA254</t>
+  </si>
+  <si>
+    <t>QA258</t>
+  </si>
+  <si>
+    <t>QA262</t>
+  </si>
+  <si>
+    <t>QA264</t>
+  </si>
+  <si>
+    <t>QA328</t>
+  </si>
+  <si>
+    <t>QA330</t>
+  </si>
+  <si>
+    <t>QA331</t>
+  </si>
+  <si>
+    <t>QA332</t>
+  </si>
+  <si>
+    <t>QA333</t>
+  </si>
+  <si>
+    <t>QA344</t>
+  </si>
+  <si>
+    <t>QA369</t>
+  </si>
+  <si>
+    <t>QA370</t>
+  </si>
+  <si>
+    <t>QA382</t>
+  </si>
+  <si>
+    <t>QA384</t>
+  </si>
+  <si>
+    <t>QA386</t>
+  </si>
+  <si>
+    <t>QB073</t>
+  </si>
+  <si>
+    <t>QB144</t>
+  </si>
+  <si>
+    <t>QB149</t>
+  </si>
+  <si>
+    <t>QB326</t>
+  </si>
+  <si>
+    <t>QB329</t>
+  </si>
+  <si>
+    <t>QB521</t>
+  </si>
+  <si>
+    <t>QB532</t>
+  </si>
+  <si>
+    <t>QB538</t>
+  </si>
+  <si>
+    <t>QB544</t>
+  </si>
+  <si>
+    <t>QB587</t>
+  </si>
+  <si>
+    <t>QB611</t>
+  </si>
+  <si>
+    <t>QB612</t>
+  </si>
+  <si>
+    <t>QB616</t>
+  </si>
+  <si>
+    <t>QB625</t>
+  </si>
+  <si>
+    <t>QB631</t>
+  </si>
+  <si>
+    <t>QB634</t>
+  </si>
+  <si>
+    <t>QB636</t>
+  </si>
+  <si>
+    <t>QB638</t>
+  </si>
+  <si>
+    <t>QB642</t>
+  </si>
+  <si>
+    <t>QB643</t>
+  </si>
+  <si>
+    <t>QB657</t>
+  </si>
+  <si>
+    <t>QB673</t>
+  </si>
+  <si>
+    <t>QB676</t>
+  </si>
+  <si>
+    <t>QB677</t>
+  </si>
+  <si>
+    <t>QB688</t>
+  </si>
+  <si>
+    <t>QB697</t>
+  </si>
+  <si>
+    <t>QB700</t>
+  </si>
+  <si>
+    <t>QB721</t>
+  </si>
+  <si>
+    <t>QB723</t>
+  </si>
+  <si>
+    <t>QB725</t>
+  </si>
+  <si>
+    <t>QB727</t>
+  </si>
+  <si>
+    <t>QB735</t>
+  </si>
+  <si>
+    <t>QB738</t>
+  </si>
+  <si>
+    <t>QB739</t>
+  </si>
+  <si>
+    <t>QB741</t>
+  </si>
+  <si>
+    <t>QB743</t>
+  </si>
+  <si>
+    <t>QB744</t>
+  </si>
+  <si>
+    <t>QB749</t>
+  </si>
+  <si>
+    <t>QB773</t>
+  </si>
+  <si>
+    <t>QB789</t>
+  </si>
+  <si>
+    <t>QB818</t>
+  </si>
+  <si>
+    <t>QB820</t>
+  </si>
+  <si>
+    <t>QB821</t>
+  </si>
+  <si>
+    <t>QB823</t>
+  </si>
+  <si>
+    <t>QB824</t>
+  </si>
+  <si>
+    <t>QB827</t>
+  </si>
+  <si>
+    <t>QB828</t>
+  </si>
+  <si>
+    <t>QC407</t>
+  </si>
+  <si>
+    <t>QC430</t>
+  </si>
+  <si>
+    <t>QC453</t>
+  </si>
+  <si>
+    <t>QC454</t>
+  </si>
+  <si>
+    <t>QC469</t>
+  </si>
+  <si>
+    <t>QC470</t>
+  </si>
+  <si>
+    <t>QC471</t>
+  </si>
+  <si>
+    <t>QC706</t>
+  </si>
+  <si>
+    <t>QC710</t>
+  </si>
+  <si>
+    <t>QC712</t>
+  </si>
+  <si>
+    <t>QD563</t>
+  </si>
+  <si>
+    <t>QD570</t>
+  </si>
+  <si>
+    <t>QD579</t>
+  </si>
+  <si>
+    <t>QD580</t>
+  </si>
+  <si>
+    <t>QD597</t>
+  </si>
+  <si>
+    <t>QD599</t>
+  </si>
+  <si>
+    <t>QD659</t>
+  </si>
+  <si>
+    <t>QD846</t>
+  </si>
+  <si>
+    <t>QD850</t>
+  </si>
+  <si>
+    <t>QD851</t>
+  </si>
+  <si>
+    <t>QD852</t>
+  </si>
+  <si>
+    <t>QD853</t>
+  </si>
+  <si>
+    <t>QD866</t>
+  </si>
+  <si>
+    <t>QD958</t>
+  </si>
+  <si>
+    <t>QE238</t>
+  </si>
+  <si>
+    <t>QE240</t>
+  </si>
+  <si>
+    <t>QE241</t>
+  </si>
+  <si>
+    <t>QE242</t>
+  </si>
+  <si>
+    <t>QE244</t>
+  </si>
+  <si>
+    <t>QE248</t>
+  </si>
+  <si>
+    <t>QE256</t>
+  </si>
+  <si>
+    <t>QE257</t>
+  </si>
+  <si>
+    <t>QE258</t>
+  </si>
+  <si>
+    <t>QE261</t>
+  </si>
+  <si>
+    <t>QE263</t>
+  </si>
+  <si>
+    <t>QE265</t>
+  </si>
+  <si>
+    <t>QE267</t>
+  </si>
+  <si>
+    <t>QE275</t>
+  </si>
+  <si>
+    <t>QE276</t>
+  </si>
+  <si>
+    <t>QE277</t>
+  </si>
+  <si>
+    <t>QE284</t>
+  </si>
+  <si>
+    <t>QE285</t>
+  </si>
+  <si>
+    <t>QE292</t>
+  </si>
+  <si>
+    <t>QE293</t>
+  </si>
+  <si>
+    <t>QE294</t>
+  </si>
+  <si>
+    <t>QE450</t>
+  </si>
+  <si>
+    <t>QE451</t>
+  </si>
+  <si>
+    <t>QE456</t>
+  </si>
+  <si>
+    <t>QE457</t>
+  </si>
+  <si>
+    <t>QE462</t>
+  </si>
+  <si>
+    <t>QE806</t>
+  </si>
+  <si>
+    <t>QE808</t>
+  </si>
+  <si>
+    <t>QE811</t>
+  </si>
+  <si>
+    <t>QE812</t>
+  </si>
+  <si>
+    <t>QE817</t>
+  </si>
+  <si>
+    <t>QE820</t>
+  </si>
+  <si>
+    <t>QE821</t>
+  </si>
+  <si>
+    <t>QE829</t>
+  </si>
+  <si>
+    <t>QE830</t>
+  </si>
+  <si>
+    <t>QE833</t>
+  </si>
+  <si>
+    <t>QE835</t>
+  </si>
+  <si>
+    <t>QE840</t>
+  </si>
+  <si>
+    <t>QE842</t>
+  </si>
+  <si>
+    <t>QE845</t>
+  </si>
+  <si>
+    <t>QE846</t>
+  </si>
+  <si>
+    <t>QE847</t>
+  </si>
+  <si>
+    <t>QE848</t>
+  </si>
+  <si>
+    <t>QE858</t>
+  </si>
+  <si>
+    <t>QE861</t>
+  </si>
+  <si>
+    <t>QE958</t>
+  </si>
+  <si>
+    <t>QE963</t>
+  </si>
+  <si>
+    <t>QE964</t>
+  </si>
+  <si>
+    <t>QF001</t>
+  </si>
+  <si>
+    <t>QF002</t>
+  </si>
+  <si>
+    <t>QF003</t>
+  </si>
+  <si>
+    <t>QF619</t>
+  </si>
+  <si>
+    <t>QF624</t>
+  </si>
+  <si>
+    <t>QF625</t>
+  </si>
+  <si>
+    <t>QB078</t>
+  </si>
+  <si>
+    <t>QD652</t>
+  </si>
+  <si>
+    <t>QB686</t>
+  </si>
+  <si>
+    <t>QB074</t>
+  </si>
+  <si>
+    <t>PE059</t>
+  </si>
+  <si>
+    <t>QB145</t>
+  </si>
+  <si>
+    <t>QB327</t>
+  </si>
+  <si>
+    <t>QB016</t>
+  </si>
+  <si>
+    <t>QB530</t>
+  </si>
+  <si>
+    <t>QB537</t>
+  </si>
+  <si>
+    <t>QB630</t>
+  </si>
+  <si>
+    <t>QB633</t>
+  </si>
+  <si>
+    <t>QA250</t>
+  </si>
+  <si>
+    <t>QA255</t>
+  </si>
+  <si>
+    <t>QA259</t>
+  </si>
+  <si>
+    <t>QA263</t>
+  </si>
+  <si>
+    <t>QA266</t>
+  </si>
+  <si>
+    <t>PD320</t>
+  </si>
+  <si>
+    <t>PH636</t>
+  </si>
+  <si>
+    <t>QB148</t>
+  </si>
+  <si>
+    <t>QB682</t>
+  </si>
+  <si>
+    <t>QB230</t>
+  </si>
+  <si>
+    <t>QB146</t>
+  </si>
+  <si>
+    <t>QB147</t>
+  </si>
+  <si>
+    <t>QB019</t>
+  </si>
+  <si>
+    <t>QB013</t>
+  </si>
+  <si>
+    <t>QB528</t>
+  </si>
+  <si>
+    <t>QB540</t>
+  </si>
+  <si>
+    <t>QB632</t>
+  </si>
+  <si>
+    <t>QB635</t>
+  </si>
+  <si>
+    <t>QA256</t>
+  </si>
+  <si>
+    <t>QA257</t>
+  </si>
+  <si>
+    <t>QA267</t>
+  </si>
+  <si>
+    <t>PD306</t>
+  </si>
+  <si>
+    <t>PD307</t>
+  </si>
+  <si>
+    <t>QB690</t>
+  </si>
+  <si>
+    <t>QD649</t>
+  </si>
+  <si>
+    <t>PE064</t>
+  </si>
+  <si>
+    <t>QB014</t>
+  </si>
+  <si>
+    <t>QB328</t>
+  </si>
+  <si>
+    <t>QB792</t>
+  </si>
+  <si>
+    <t>QB539</t>
+  </si>
+  <si>
+    <t>QA265</t>
+  </si>
+  <si>
+    <t>PH640</t>
+  </si>
+  <si>
+    <t>QB684</t>
+  </si>
+  <si>
+    <t>QD648</t>
+  </si>
+  <si>
+    <t>QB018</t>
+  </si>
+  <si>
+    <t>PD630</t>
+  </si>
+  <si>
+    <t>QB535</t>
+  </si>
+  <si>
+    <t>PH614</t>
+  </si>
+  <si>
+    <t>PJ188</t>
+  </si>
+  <si>
+    <t>PJ187</t>
+  </si>
+  <si>
+    <t>PD332</t>
+  </si>
+  <si>
+    <t>QB089</t>
+  </si>
+  <si>
+    <t>QB079</t>
+  </si>
+  <si>
+    <t>QB017</t>
+  </si>
+  <si>
+    <t>QB251</t>
+  </si>
+  <si>
+    <t>PJ189</t>
+  </si>
+  <si>
+    <t>QB536</t>
+  </si>
+  <si>
+    <t>QB076</t>
   </si>
 </sst>
 </file>
@@ -666,10 +1065,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A186"/>
+  <dimension ref="A1:A319"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1194,417 +1593,1082 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
